--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N2">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O2">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P2">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q2">
-        <v>7.089128637915282</v>
+        <v>0.003928245730666667</v>
       </c>
       <c r="R2">
-        <v>7.089128637915282</v>
+        <v>0.035354211576</v>
       </c>
       <c r="S2">
-        <v>0.0005324394261419386</v>
+        <v>1.526713701059239E-07</v>
       </c>
       <c r="T2">
-        <v>0.0005324394261419386</v>
+        <v>1.527734247094209E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.1208960578351</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N3">
-        <v>17.1208960578351</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O3">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="P3">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="Q3">
-        <v>5.299746047941014</v>
+        <v>0.04921531221300002</v>
       </c>
       <c r="R3">
-        <v>5.299746047941014</v>
+        <v>0.4429378099170002</v>
       </c>
       <c r="S3">
-        <v>0.0003980452166394221</v>
+        <v>1.91275435930388E-06</v>
       </c>
       <c r="T3">
-        <v>0.0003980452166394221</v>
+        <v>1.914032957822977E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9015189506153</v>
+        <v>44.63560033333334</v>
       </c>
       <c r="N4">
-        <v>22.9015189506153</v>
+        <v>133.906801</v>
       </c>
       <c r="O4">
-        <v>0.5722173173652774</v>
+        <v>0.643519658454991</v>
       </c>
       <c r="P4">
-        <v>0.5722173173652774</v>
+        <v>0.6435196584549912</v>
       </c>
       <c r="Q4">
-        <v>6319.891045413508</v>
+        <v>23.37445873335767</v>
       </c>
       <c r="R4">
-        <v>6319.891045413508</v>
+        <v>210.370128600219</v>
       </c>
       <c r="S4">
-        <v>0.4746647061110583</v>
+        <v>0.0009084489324196277</v>
       </c>
       <c r="T4">
-        <v>0.4746647061110583</v>
+        <v>0.0009090561935946014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1208960578351</v>
+        <v>24.62459066666667</v>
       </c>
       <c r="N5">
-        <v>17.1208960578351</v>
+        <v>73.873772</v>
       </c>
       <c r="O5">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="P5">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="Q5">
-        <v>4724.673412217507</v>
+        <v>12.89523326818533</v>
       </c>
       <c r="R5">
-        <v>4724.673412217507</v>
+        <v>116.057099413668</v>
       </c>
       <c r="S5">
-        <v>0.3548535410762321</v>
+        <v>0.0005011735685270458</v>
       </c>
       <c r="T5">
-        <v>0.3548535410762321</v>
+        <v>0.0005015085826805424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H6">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I6">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J6">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N6">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O6">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P6">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q6">
-        <v>431.6976870632215</v>
+        <v>2.182120576093334</v>
       </c>
       <c r="R6">
-        <v>431.6976870632215</v>
+        <v>19.63908518484</v>
       </c>
       <c r="S6">
-        <v>0.03242328930771628</v>
+        <v>8.480817161913097E-05</v>
       </c>
       <c r="T6">
-        <v>0.03242328930771628</v>
+        <v>8.486486243366869E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.1208960578351</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N7">
-        <v>17.1208960578351</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O7">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="P7">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="Q7">
-        <v>322.7319220421692</v>
+        <v>27.33885627379501</v>
       </c>
       <c r="R7">
-        <v>322.7319220421692</v>
+        <v>246.0497064641551</v>
       </c>
       <c r="S7">
-        <v>0.02423925536500766</v>
+        <v>0.001062525343530601</v>
       </c>
       <c r="T7">
-        <v>0.02423925536500766</v>
+        <v>0.001063235598521856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.0042508650679</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>37.0042508650679</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.1112326431485824</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.1112326431485824</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9015189506153</v>
+        <v>44.63560033333334</v>
       </c>
       <c r="N8">
-        <v>22.9015189506153</v>
+        <v>133.906801</v>
       </c>
       <c r="O8">
-        <v>0.5722173173652774</v>
+        <v>0.643519658454991</v>
       </c>
       <c r="P8">
-        <v>0.5722173173652774</v>
+        <v>0.6435196584549912</v>
       </c>
       <c r="Q8">
-        <v>847.4535524396753</v>
+        <v>12984.3932519079</v>
       </c>
       <c r="R8">
-        <v>847.4535524396753</v>
+        <v>116859.5392671711</v>
       </c>
       <c r="S8">
-        <v>0.063649244665931</v>
+        <v>0.5046387735592259</v>
       </c>
       <c r="T8">
-        <v>0.063649244665931</v>
+        <v>0.5049761040613958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.0042508650679</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>37.0042508650679</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.1112326431485824</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.1112326431485824</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.1208960578351</v>
+        <v>24.62459066666667</v>
       </c>
       <c r="N9">
-        <v>17.1208960578351</v>
+        <v>73.873772</v>
       </c>
       <c r="O9">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="P9">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="Q9">
-        <v>633.5459327588821</v>
+        <v>7163.236665251848</v>
       </c>
       <c r="R9">
-        <v>633.5459327588821</v>
+        <v>64469.12998726663</v>
       </c>
       <c r="S9">
-        <v>0.04758339848265137</v>
+        <v>0.2783993749523886</v>
       </c>
       <c r="T9">
-        <v>0.04758339848265137</v>
+        <v>0.2785854736151887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.550935507225664</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H10">
-        <v>0.550935507225664</v>
+        <v>116.052725</v>
       </c>
       <c r="I10">
-        <v>0.001656080348621943</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J10">
-        <v>0.001656080348621943</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N10">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O10">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P10">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q10">
-        <v>12.6172599592954</v>
+        <v>0.2901833914888889</v>
       </c>
       <c r="R10">
-        <v>12.6172599592954</v>
+        <v>2.6116505234</v>
       </c>
       <c r="S10">
-        <v>0.0009476378544298017</v>
+        <v>1.127798488132607E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009476378544298017</v>
+        <v>1.128552375567108E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H11">
+        <v>116.052725</v>
+      </c>
+      <c r="I11">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J11">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P11">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q11">
+        <v>3.635583716075001</v>
+      </c>
+      <c r="R11">
+        <v>32.720253444675</v>
+      </c>
+      <c r="S11">
+        <v>0.0001412970534747475</v>
+      </c>
+      <c r="T11">
+        <v>0.0001413915048100414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H12">
+        <v>116.052725</v>
+      </c>
+      <c r="I12">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J12">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N12">
+        <v>133.906801</v>
+      </c>
+      <c r="O12">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P12">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q12">
+        <v>1726.694350231414</v>
+      </c>
+      <c r="R12">
+        <v>15540.24915208272</v>
+      </c>
+      <c r="S12">
+        <v>0.06710801978247152</v>
+      </c>
+      <c r="T12">
+        <v>0.06715287876517154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H13">
+        <v>116.052725</v>
+      </c>
+      <c r="I13">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J13">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N13">
+        <v>73.873772</v>
+      </c>
+      <c r="O13">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P13">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q13">
+        <v>952.5836162920777</v>
+      </c>
+      <c r="R13">
+        <v>8573.252546628701</v>
+      </c>
+      <c r="S13">
+        <v>0.0370221864443001</v>
+      </c>
+      <c r="T13">
+        <v>0.03704693427066429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40.106198</v>
+      </c>
+      <c r="H14">
+        <v>120.318594</v>
+      </c>
+      <c r="I14">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J14">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.007501333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.022504</v>
+      </c>
+      <c r="O14">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="P14">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="Q14">
+        <v>0.3008499599306667</v>
+      </c>
+      <c r="R14">
+        <v>2.707649639376</v>
+      </c>
+      <c r="S14">
+        <v>1.169254133476323E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.170035732324203E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40.106198</v>
+      </c>
+      <c r="H15">
+        <v>120.318594</v>
+      </c>
+      <c r="I15">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J15">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P15">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q15">
+        <v>3.769220594238001</v>
+      </c>
+      <c r="R15">
+        <v>33.92298534814201</v>
+      </c>
+      <c r="S15">
+        <v>0.0001464908541391375</v>
+      </c>
+      <c r="T15">
+        <v>0.0001465887773190024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>40.106198</v>
+      </c>
+      <c r="H16">
+        <v>120.318594</v>
+      </c>
+      <c r="I16">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J16">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N16">
+        <v>133.906801</v>
+      </c>
+      <c r="O16">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P16">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q16">
+        <v>1790.164224817533</v>
+      </c>
+      <c r="R16">
+        <v>16111.47802335779</v>
+      </c>
+      <c r="S16">
+        <v>0.06957477807049475</v>
+      </c>
+      <c r="T16">
+        <v>0.06962128598081514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.106198</v>
+      </c>
+      <c r="H17">
+        <v>120.318594</v>
+      </c>
+      <c r="I17">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J17">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N17">
+        <v>73.873772</v>
+      </c>
+      <c r="O17">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P17">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q17">
+        <v>987.5987089462853</v>
+      </c>
+      <c r="R17">
+        <v>8888.388380516568</v>
+      </c>
+      <c r="S17">
+        <v>0.0383830489097438</v>
+      </c>
+      <c r="T17">
+        <v>0.03840870641733524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7434085</v>
+      </c>
+      <c r="H18">
+        <v>1.486817</v>
+      </c>
+      <c r="I18">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J18">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.007501333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.022504</v>
+      </c>
+      <c r="O18">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="P18">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="Q18">
+        <v>0.005576554961333333</v>
+      </c>
+      <c r="R18">
+        <v>0.033459329768</v>
+      </c>
+      <c r="S18">
+        <v>2.167329502254073E-07</v>
+      </c>
+      <c r="T18">
+        <v>1.445852182603692E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7434085</v>
+      </c>
+      <c r="H19">
+        <v>1.486817</v>
+      </c>
+      <c r="I19">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J19">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N19">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P19">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q19">
+        <v>0.06986627423850002</v>
+      </c>
+      <c r="R19">
+        <v>0.4191976454310001</v>
+      </c>
+      <c r="S19">
+        <v>2.715354522991558E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.811446418058269E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7434085</v>
+      </c>
+      <c r="H20">
+        <v>1.486817</v>
+      </c>
+      <c r="I20">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J20">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N20">
+        <v>133.906801</v>
+      </c>
+      <c r="O20">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P20">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q20">
+        <v>33.18248469040284</v>
+      </c>
+      <c r="R20">
+        <v>199.094908142417</v>
+      </c>
+      <c r="S20">
+        <v>0.001289638110379334</v>
+      </c>
+      <c r="T20">
+        <v>0.0008603334540140788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="H11">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="I11">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="J11">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.1208960578351</v>
-      </c>
-      <c r="N11">
-        <v>17.1208960578351</v>
-      </c>
-      <c r="O11">
-        <v>0.4277826826347227</v>
-      </c>
-      <c r="P11">
-        <v>0.4277826826347227</v>
-      </c>
-      <c r="Q11">
-        <v>9.432509553781252</v>
-      </c>
-      <c r="R11">
-        <v>9.432509553781252</v>
-      </c>
-      <c r="S11">
-        <v>0.0007084424941921416</v>
-      </c>
-      <c r="T11">
-        <v>0.0007084424941921416</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7434085</v>
+      </c>
+      <c r="H21">
+        <v>1.486817</v>
+      </c>
+      <c r="I21">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J21">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N21">
+        <v>73.873772</v>
+      </c>
+      <c r="O21">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P21">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q21">
+        <v>18.30613001062067</v>
+      </c>
+      <c r="R21">
+        <v>109.836780063724</v>
+      </c>
+      <c r="S21">
+        <v>0.0007114682078670053</v>
+      </c>
+      <c r="T21">
+        <v>0.0004746291969577299</v>
       </c>
     </row>
   </sheetData>
